--- a/v1/converting_test_cases.xlsx
+++ b/v1/converting_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frolik/Documents/final-project/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B0C47F-A6C8-3D4C-AEBA-2635587CC0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C0B270-CD98-D743-AB1A-EAB90DCC92A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,6 +641,710 @@
           <rPr>
             <b/>
             <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Result:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PASS or FAIL
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">+ Positive test cases are expected to PASS.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Negative test cases:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PASS if the program handles input that cannot be processed accurately.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">FAIL if an operating system message appears, or if the program gives inaccurate output. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{7AB124D7-8C8A-44DD-A61F-3B2C3D2DE3F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Required for negative test cases that FAIL
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{932032E9-722E-4E64-A067-812CE06A2B1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{7FDB9C65-962D-4257-952E-B10A4E11B5F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{B1F98852-E03F-45D0-A882-F4B2C36B055E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{0C0918EC-F8CB-439B-A9D5-12B257CB0A0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">expected Output or Response:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the test is run.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{46127AB5-4847-4D76-8082-5B947E678BE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hover over Result and Comments for more details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Result:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PASS or FAIL
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">+ Positive test cases are expected to PASS.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Negative test cases:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PASS if the program handles input that cannot be processed accurately.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">FAIL if an operating system message appears, or if the program gives inaccurate output. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required for negative test cases that FAIL
+or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{EA807800-7D99-42C2-8FA7-105696568FFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{6523EF89-7C7C-41DC-B9D8-92708814E2E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{4630BF63-60C7-42F9-9C60-EF9CD44B688A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{A8EDB628-DA3F-4BA1-A578-480C70A6FC27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">expected Output or Response:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{A6607402-9B3D-4194-8CA9-39747FF47C55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hover over Result and Comments for more details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -658,609 +1362,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{7AB124D7-8C8A-44DD-A61F-3B2C3D2DE3F5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{932032E9-722E-4E64-A067-812CE06A2B1E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{7FDB9C65-962D-4257-952E-B10A4E11B5F6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{B1F98852-E03F-45D0-A882-F4B2C36B055E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{0C0918EC-F8CB-439B-A9D5-12B257CB0A0C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">expected Output or Response:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">the result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">the test is run.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{46127AB5-4847-4D76-8082-5B947E678BE7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hover over Result and Comments for more details.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Result:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">PASS or FAIL
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">+ Positive test cases are expected to PASS.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Negative test cases:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">PASS if the program handles input that cannot be processed accurately.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">FAIL if an operating system message appears, or if the program gives inaccurate output. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{EA807800-7D99-42C2-8FA7-105696568FFD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{6523EF89-7C7C-41DC-B9D8-92708814E2E3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{4630BF63-60C7-42F9-9C60-EF9CD44B688A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{A8EDB628-DA3F-4BA1-A578-480C70A6FC27}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">expected Output or Response:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{A6607402-9B3D-4194-8CA9-39747FF47C55}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hover over Result and Comments for more details.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Result:
-PASS or FAIL
-+ Positive test cases are expected to PASS.
-- Negative test cases:
-PASS if the program handles input that cannot be processed accurately.
-FAIL if an operating system message appears, or if the program gives inaccurate output. 
-E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
-It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
-It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G24" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
       <text>
         <r>
@@ -1281,7 +1382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
   <si>
     <t>Comments</t>
   </si>
@@ -1521,6 +1622,15 @@
   </si>
   <si>
     <t>\n</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>Add error message: "The entered number must be between -2147483648 and 2147483647"</t>
+  </si>
+  <si>
+    <t>Add error message: "The entered value must be a number or 'q'"</t>
   </si>
 </sst>
 </file>
@@ -2036,6 +2146,15 @@
     <xf numFmtId="14" fontId="17" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2047,15 +2166,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2414,22 +2524,22 @@
       <c r="B1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="39" t="str">
+      <c r="C1" s="42" t="str">
         <f>"Do not save or use this worksheet – sample test cases only"</f>
         <v>Do not save or use this worksheet – sample test cases only</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="30"/>
       <c r="F2" s="18" t="s">
         <v>11</v>
@@ -2620,7 +2730,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2631,7 +2741,7 @@
     <col min="4" max="4" width="38.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.2">
@@ -2641,23 +2751,23 @@
       <c r="B1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="39" t="str">
+      <c r="C1" s="42" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As converting_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2689,16 +2799,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="37">
         <v>-2147483648</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="37" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="23"/>
@@ -2708,16 +2818,16 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="37">
         <v>2147483647</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="37" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="23"/>
@@ -2726,189 +2836,217 @@
       </c>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="37">
         <v>-2147483650</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="37" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
+      <c r="G6" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+      <c r="A7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="37">
         <v>2147483650</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="37" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="41"/>
       <c r="F8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="23"/>
       <c r="F9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="23"/>
       <c r="F10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="23"/>
       <c r="F11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A13" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="23"/>
       <c r="F13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="20" t="s">
         <v>11</v>
       </c>
@@ -2976,13 +3114,13 @@
       <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="20" t="s">
         <v>11</v>
       </c>
